--- a/2023/Palestrantes.xlsx
+++ b/2023/Palestrantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/Seminario-Meio-Termo/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B054232-9DD3-8F4B-BF94-5742A3798DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0F80AB-5008-DF49-9AC5-E0302870FA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" activeTab="5" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="11" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>Editora-Chefe do "Brazilian Journal of Physical Therapy" (2023-2027)</t>
   </si>
   <si>
-    <t xml:space="preserve">Universidade de São Paulo, Faculdade de Medicina de Ribeirão Preto. </t>
-  </si>
-  <si>
     <t>Rosimeire.jpg</t>
   </si>
   <si>
@@ -344,6 +341,9 @@
   </si>
   <si>
     <t>Coordenador do Programa de Pós-graduação em Ciências da Reabilitação (PPGCR)</t>
+  </si>
+  <si>
+    <t>Universidade de São Paulo, Faculdade de Medicina de Ribeirão Preto</t>
   </si>
 </sst>
 </file>
@@ -718,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC4395-1BF5-D046-A505-CE369291A3B5}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -745,106 +745,106 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D20" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.15">
@@ -889,116 +889,116 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1043,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>31</v>
@@ -1296,7 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D43FBA1-D0BB-004C-B581-6F5326214EE8}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1323,66 +1323,66 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/2023/Palestrantes.xlsx
+++ b/2023/Palestrantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/Seminario-Meio-Termo/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0F80AB-5008-DF49-9AC5-E0302870FA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BAD67F-8A1B-FF48-88A5-FB9615B2F5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" activeTab="6" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="11" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="4" sheetId="8" r:id="rId4"/>
     <sheet name="5" sheetId="1" r:id="rId5"/>
     <sheet name="6" sheetId="12" r:id="rId6"/>
+    <sheet name="7" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
   <si>
     <t>Imagem</t>
   </si>
@@ -130,9 +131,6 @@
     <t>Tem experiência na área de Fisioterapia e Terapia Ocupacional, na área neuromusculoesquelética, atuando principalmente nos seguintes temas: dor lombar e condições musculoesqueléticas, atividade física e estilo de vida em condições crônicas de saúde, em diferentes ciclos de vida, funcionalidade.</t>
   </si>
   <si>
-    <t>Cristini.jpg</t>
-  </si>
-  <si>
     <t>Profa. Dra. Cristine Homsi Jorge</t>
   </si>
   <si>
@@ -344,13 +342,46 @@
   </si>
   <si>
     <t>Universidade de São Paulo, Faculdade de Medicina de Ribeirão Preto</t>
+  </si>
+  <si>
+    <t>Cristine.jpg</t>
+  </si>
+  <si>
+    <t>Renato.jpeg</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Renato Santos de Almeida</t>
+  </si>
+  <si>
+    <t>Doutorado em Saúde Pública pela Fundação Oswaldo Cruz (ENSP - FIOCRUZ) em 2015;</t>
+  </si>
+  <si>
+    <t>Pós-doutorado pelo Programa de Pós-graduação em Ciências da Reabilitação do Centro Universitário Augusto Motta (UNISUAM)</t>
+  </si>
+  <si>
+    <t>Mestrado em Gestão em Saúde (Université Françoise Rabelais, Tours, França)</t>
+  </si>
+  <si>
+    <t>Especialização em Biomecânica (EEFD- UFRJ)</t>
+  </si>
+  <si>
+    <t>Graduação em Fisioterapia (UNESA)</t>
+  </si>
+  <si>
+    <t>Docente do programa do pós-graduação em Ciências da Reabilitação do Centro Universitário Augusto Motta (UNISUAM)</t>
+  </si>
+  <si>
+    <t>Docente do Centro Universitário da Serra dos Órgãos (UNIFESO), Teresópolis, RJ</t>
+  </si>
+  <si>
+    <t>Tem experiência na área de ciências da reabilitação, desenvolve pesquisas clínicas na área de dor crônica e seus impactos para usuários da rede SUS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,6 +402,11 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="2">
@@ -393,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -402,6 +438,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,9 +755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC4395-1BF5-D046-A505-CE369291A3B5}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -729,7 +766,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -743,114 +780,114 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="D3" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D3" s="3" t="s">
+    <row r="4" spans="1:4">
+      <c r="D4" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D4" s="3" t="s">
+    <row r="5" spans="1:4">
+      <c r="D5" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D5" s="3" t="s">
+    <row r="6" spans="1:4">
+      <c r="D6" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D6" s="3" t="s">
+    <row r="7" spans="1:4">
+      <c r="D7" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D7" s="3" t="s">
+    <row r="8" spans="1:4">
+      <c r="D8" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D8" s="3" t="s">
+    <row r="9" spans="1:4">
+      <c r="D9" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D9" s="3" t="s">
+    <row r="10" spans="1:4">
+      <c r="D10" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D10" s="3" t="s">
+    <row r="11" spans="1:4">
+      <c r="D11" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D11" s="3" t="s">
+    <row r="12" spans="1:4">
+      <c r="D12" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D12" s="3" t="s">
+    <row r="13" spans="1:4">
+      <c r="D13" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D13" s="3" t="s">
+    <row r="14" spans="1:4">
+      <c r="D14" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D14" s="3" t="s">
+    <row r="15" spans="1:4">
+      <c r="D15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D15" s="3" t="s">
+    <row r="16" spans="1:4">
+      <c r="D16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D16" s="3" t="s">
+    <row r="17" spans="4:4">
+      <c r="D17" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D17" s="3" t="s">
+    <row r="18" spans="4:4">
+      <c r="D18" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D18" s="3" t="s">
+    <row r="19" spans="4:4">
+      <c r="D19" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D19" s="3" t="s">
+    <row r="20" spans="4:4">
+      <c r="D20" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D20" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:4">
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:4">
       <c r="D22" s="3"/>
     </row>
   </sheetData>
@@ -864,7 +901,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -873,7 +910,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -887,118 +924,118 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="D3" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D3" s="3" t="s">
+    <row r="4" spans="1:4">
+      <c r="D4" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D4" s="3" t="s">
+    <row r="5" spans="1:4">
+      <c r="D5" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D5" s="3" t="s">
+    <row r="6" spans="1:4">
+      <c r="D6" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D6" s="3" t="s">
+    <row r="7" spans="1:4">
+      <c r="D7" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D7" s="3" t="s">
+    <row r="8" spans="1:4">
+      <c r="D8" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D8" s="3" t="s">
+    <row r="9" spans="1:4">
+      <c r="D9" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D9" s="3" t="s">
+    <row r="10" spans="1:4">
+      <c r="D10" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D10" s="3" t="s">
+    <row r="11" spans="1:4">
+      <c r="D11" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D11" s="3" t="s">
+    <row r="12" spans="1:4">
+      <c r="D12" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D12" s="3" t="s">
+    <row r="13" spans="1:4">
+      <c r="D13" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D13" s="3" t="s">
+    <row r="14" spans="1:4">
+      <c r="D14" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D14" s="3" t="s">
+    <row r="15" spans="1:4">
+      <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D15" s="3" t="s">
+    <row r="16" spans="1:4">
+      <c r="D16" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D16" s="3" t="s">
+    <row r="17" spans="4:4">
+      <c r="D17" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D17" s="3" t="s">
+    <row r="18" spans="4:4">
+      <c r="D18" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D18" s="3" t="s">
+    <row r="19" spans="4:4">
+      <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D19" s="3" t="s">
+    <row r="20" spans="4:4">
+      <c r="D20" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D20" s="3" t="s">
+    <row r="21" spans="4:4">
+      <c r="D21" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D21" s="3" t="s">
+    <row r="22" spans="4:4">
+      <c r="D22" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D22" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1049,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -1021,7 +1058,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1035,66 +1072,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D3" s="3" t="s">
+    <row r="4" spans="1:4">
+      <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D4" s="3" t="s">
+    <row r="5" spans="1:4">
+      <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D5" s="3" t="s">
+    <row r="6" spans="1:4">
+      <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D6" s="3" t="s">
+    <row r="7" spans="1:4">
+      <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D7" s="3" t="s">
+    <row r="8" spans="1:4">
+      <c r="D8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D8" s="3" t="s">
+    <row r="9" spans="1:4">
+      <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D9" s="3" t="s">
+    <row r="10" spans="1:4">
+      <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D10" s="3" t="s">
+    <row r="11" spans="1:4">
+      <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="D12" s="3"/>
     </row>
   </sheetData>
@@ -1108,7 +1145,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -1117,7 +1154,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1145,48 +1182,48 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="D12" s="3"/>
     </row>
   </sheetData>
@@ -1200,7 +1237,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -1209,7 +1246,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1223,7 +1260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1237,52 +1274,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1298,7 +1335,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -1307,7 +1344,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1321,69 +1358,161 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="D3" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69826D5-3004-3448-8217-F21839F42FD6}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="124.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D3" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D4" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D5" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D6" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D7" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D8" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D9" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D10" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D11" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D12" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="D2" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="D3" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/2023/Palestrantes.xlsx
+++ b/2023/Palestrantes.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/Seminario-Meio-Termo/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BAD67F-8A1B-FF48-88A5-FB9615B2F5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB14E024-B28F-0F49-B595-DB5B728E6C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" activeTab="6" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" activeTab="8" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="11" r:id="rId1"/>
-    <sheet name="2" sheetId="10" r:id="rId2"/>
+    <sheet name="5" sheetId="1" r:id="rId1"/>
+    <sheet name="6" sheetId="12" r:id="rId2"/>
     <sheet name="3" sheetId="9" r:id="rId3"/>
-    <sheet name="4" sheetId="8" r:id="rId4"/>
-    <sheet name="5" sheetId="1" r:id="rId5"/>
-    <sheet name="6" sheetId="12" r:id="rId6"/>
+    <sheet name="9" sheetId="16" r:id="rId4"/>
+    <sheet name="4" sheetId="8" r:id="rId5"/>
+    <sheet name="8" sheetId="15" r:id="rId6"/>
     <sheet name="7" sheetId="14" r:id="rId7"/>
+    <sheet name="1" sheetId="11" r:id="rId8"/>
+    <sheet name="2" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="136">
   <si>
     <t>Imagem</t>
   </si>
@@ -375,13 +377,88 @@
   </si>
   <si>
     <t>Tem experiência na área de ciências da reabilitação, desenvolve pesquisas clínicas na área de dor crônica e seus impactos para usuários da rede SUS</t>
+  </si>
+  <si>
+    <t>Leandro.jpeg</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Leandro Alberto Calazans Nogueira</t>
+  </si>
+  <si>
+    <t>Graduou-se em Fisioterapia (UGF - 2000)</t>
+  </si>
+  <si>
+    <t>Especialização em Biomecânica (UNESA - 2004) e em Osteopatia (UCB - 2006)</t>
+  </si>
+  <si>
+    <t>Mestrado e Doutorado em Neurologia (UNIRIO - 2006 e 2012)</t>
+  </si>
+  <si>
+    <t>Professor efetivo do curso de graduação em Fisioterapia do IFRJ</t>
+  </si>
+  <si>
+    <t>Docente permanente do Programa de Pós-graduação em Ciências da Reabilitação da UNISUAM</t>
+  </si>
+  <si>
+    <t>Contemplado com o Programa Jovem Cientista do Nosso Estado (JCNE - FAPERJ) em 2020</t>
+  </si>
+  <si>
+    <t>Professor colaborador da Escuela de Osteopatia de Madrid, do Instituto de Pós-Graduação de Goiás, e de outras instituições</t>
+  </si>
+  <si>
+    <t>Ampla experiência clínica com atuação em Hospitais Universitários, Clínica-Escola, Hospitais Privados e consultório particular</t>
+  </si>
+  <si>
+    <t>Prática clínica é voltada para a área de fisioterapia musculoesquelética</t>
+  </si>
+  <si>
+    <t>Experiência na área de gestão, fisioterapia desportiva, fisioterapia neurofuncional e gerontologia</t>
+  </si>
+  <si>
+    <t>Publicou diversos artigos em revistas nacionais e internacionais com ênfase em Terapia Manual, Análise de Movimento, Intervenções clínicas e Epidemiologia</t>
+  </si>
+  <si>
+    <t>Desenvolve e colabora com projetos de pesquisa com a participação de alunos da graduação, especialização e mestrado em fisioterapia e educação física</t>
+  </si>
+  <si>
+    <t>Membro do Comitê de Ética em Pesquisa do Instituto Federal do Rio de Janeiro (CEP-IFRJ)</t>
+  </si>
+  <si>
+    <t>Elaine.jpeg</t>
+  </si>
+  <si>
+    <t>Profa. Dra. Elaine Caldeira de Oliveira Guirro</t>
+  </si>
+  <si>
+    <t>Graduada em Fisioterapia pela Universidade Federal de São Carlos (UFSCAR)</t>
+  </si>
+  <si>
+    <t>Mestrado em Bioengenharia pela Universidade de São Paulo (USP)</t>
+  </si>
+  <si>
+    <t>Doutorado em Ciências Biológicas pela Universidade Estadual Paulista Júlio de Mesquita Filho (UNESP)</t>
+  </si>
+  <si>
+    <t>Professora Associada 3 da Faculdade de Medicina de Ribeirão Preto, Curso de Fisioterapia da Universidade de São Paulo - Departamento de Ciências da Saúde</t>
+  </si>
+  <si>
+    <t>Professora do Programa de Pós-Graduação em Reabilitação e Desempenho Funcional (orientadora de mestrado e doutorado) da Faculdade de Medicina de Ribeirão Preto / USP.</t>
+  </si>
+  <si>
+    <t>Experiência na área de Fisioterapia, com ênfase em Fisioterapia Dermatofuncional, Fisioterapia na Saúde da Mulher e Recursos Eletro-foto-térmicos</t>
+  </si>
+  <si>
+    <t>Tutora da Fisioterapia / Residência Multiprofissional em Atenção ao Câncer FMRP/USP</t>
+  </si>
+  <si>
+    <t>Sócia Fundadora da Associação Brasileira de Fisioterapia em Saúde da Mulher (ABRAFISM) e Associação Brasileira de Fisioterapia Dermatofuncional (ABRAFIDEF).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -393,20 +470,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -429,16 +500,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,143 +822,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC4395-1BF5-D046-A505-CE369291A3B5}">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8470464-C0F3-0544-B5A2-36133E800C8D}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="124.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="167" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>99</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="D13" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="D14" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="3"/>
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -896,146 +920,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0E0E4A-4D4A-0840-AFA4-AFD6A3C28FC8}">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D43FBA1-D0BB-004C-B581-6F5326214EE8}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="124.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>63</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="D13" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="D14" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="3" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1049,89 +1023,89 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="124.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="213.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
     </row>
   </sheetData>
@@ -1140,90 +1114,90 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF3E17C-4748-114D-9AD7-ABED9DB5382C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1669C71B-718A-5B4D-912A-7A32334E26B2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="124.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="164.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
     </row>
   </sheetData>
@@ -1232,97 +1206,91 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8470464-C0F3-0544-B5A2-36133E800C8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF3E17C-4748-114D-9AD7-ABED9DB5382C}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="124.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1330,96 +1298,106 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D43FBA1-D0BB-004C-B581-6F5326214EE8}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441A447B-D6EB-F54F-ADA6-014E336F58AF}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="124.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="142.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>97</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1431,88 +1409,380 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69826D5-3004-3448-8217-F21839F42FD6}">
   <dimension ref="A1:D12"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="139.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC4395-1BF5-D046-A505-CE369291A3B5}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="180.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0E0E4A-4D4A-0840-AFA4-AFD6A3C28FC8}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="124.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="D3" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="D4" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="D6" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="D7" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="D8" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="D9" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="D12" s="3"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/2023/Palestrantes.xlsx
+++ b/2023/Palestrantes.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/Seminario-Meio-Termo/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB14E024-B28F-0F49-B595-DB5B728E6C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1269D050-AEF0-FD4D-B94E-EC396E5C326B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" activeTab="8" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
   </bookViews>
   <sheets>
-    <sheet name="5" sheetId="1" r:id="rId1"/>
-    <sheet name="6" sheetId="12" r:id="rId2"/>
-    <sheet name="3" sheetId="9" r:id="rId3"/>
-    <sheet name="9" sheetId="16" r:id="rId4"/>
-    <sheet name="4" sheetId="8" r:id="rId5"/>
-    <sheet name="8" sheetId="15" r:id="rId6"/>
-    <sheet name="7" sheetId="14" r:id="rId7"/>
-    <sheet name="1" sheetId="11" r:id="rId8"/>
-    <sheet name="2" sheetId="10" r:id="rId9"/>
+    <sheet name="A" sheetId="1" r:id="rId1"/>
+    <sheet name="B" sheetId="17" r:id="rId2"/>
+    <sheet name="C" sheetId="12" r:id="rId3"/>
+    <sheet name="D" sheetId="9" r:id="rId4"/>
+    <sheet name="E" sheetId="16" r:id="rId5"/>
+    <sheet name="F" sheetId="8" r:id="rId6"/>
+    <sheet name="G" sheetId="15" r:id="rId7"/>
+    <sheet name="H" sheetId="14" r:id="rId8"/>
+    <sheet name="I" sheetId="11" r:id="rId9"/>
+    <sheet name="J" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="146">
   <si>
     <t>Imagem</t>
   </si>
@@ -58,9 +59,6 @@
     <t>Afiliação</t>
   </si>
   <si>
-    <t>Alessandro.jpg</t>
-  </si>
-  <si>
     <t>Prof. Dr. Alessandro Haupenthal</t>
   </si>
   <si>
@@ -452,6 +450,39 @@
   </si>
   <si>
     <t>Sócia Fundadora da Associação Brasileira de Fisioterapia em Saúde da Mulher (ABRAFISM) e Associação Brasileira de Fisioterapia Dermatofuncional (ABRAFIDEF).</t>
+  </si>
+  <si>
+    <t>Anielle.jpeg</t>
+  </si>
+  <si>
+    <t>Alessandro.jpeg</t>
+  </si>
+  <si>
+    <t>Profa. Dra. Anielle Cristhine de Medeiros Takahashi</t>
+  </si>
+  <si>
+    <t>Universidade Federal de São Carlos</t>
+  </si>
+  <si>
+    <t>Graduada em Fisioterapia pela Universidade Federal de São Carlos (2003)</t>
+  </si>
+  <si>
+    <t>Mestre (2007) e Doutora em Fisioterapia pelo Programa de Pós Graduação em Fisioterapia da UFSCar (2010)</t>
+  </si>
+  <si>
+    <t>Realizou estágio de doutorado sanduiche na Universitá degli Studi di Milano no período de 01/07/08 a 31/12/08</t>
+  </si>
+  <si>
+    <t>Atualmente é professora associada do Departamento de Fisioterapia da UFSCar</t>
+  </si>
+  <si>
+    <t>Credenciada no Programa de Pós Graduação em Fisioterapia da UFSCar</t>
+  </si>
+  <si>
+    <t>Atua principalmente nos seguintes temas: envelhecimento, fragilidade, exercício físico, complexidade de sinais biológicos, comportamento sedentário</t>
+  </si>
+  <si>
+    <t>Bolsista produtividade em pesquisa CNPq (PQ 2)</t>
   </si>
 </sst>
 </file>
@@ -825,11 +856,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8470464-C0F3-0544-B5A2-36133E800C8D}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="167" style="2" bestFit="1" customWidth="1"/>
@@ -852,66 +883,214 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0E0E4A-4D4A-0840-AFA4-AFD6A3C28FC8}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -920,6 +1099,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F727CEE5-BB0C-5E4F-AB74-354D6791C2E5}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="137.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D43FBA1-D0BB-004C-B581-6F5326214EE8}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -950,66 +1219,66 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +1286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E525DD-E7CB-E44E-BDB3-081481989FD9}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1048,61 +1317,61 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1113,7 +1382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1669C71B-718A-5B4D-912A-7A32334E26B2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1144,51 +1413,51 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1205,7 +1474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF3E17C-4748-114D-9AD7-ABED9DB5382C}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1236,51 +1505,51 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1297,7 +1566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441A447B-D6EB-F54F-ADA6-014E336F58AF}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -1328,76 +1597,76 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1405,7 +1674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69826D5-3004-3448-8217-F21839F42FD6}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1436,51 +1705,51 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1497,7 +1766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC4395-1BF5-D046-A505-CE369291A3B5}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -1528,106 +1797,106 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
@@ -1635,154 +1904,6 @@
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0E0E4A-4D4A-0840-AFA4-AFD6A3C28FC8}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D3" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D4" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D6" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D8" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D11" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="3" t="s">
-        <v>62</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/2023/Palestrantes.xlsx
+++ b/2023/Palestrantes.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/Seminario-Meio-Termo/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1269D050-AEF0-FD4D-B94E-EC396E5C326B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA86ED-86F1-8244-9ECE-CFC36B518C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" activeTab="6" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
   </bookViews>
   <sheets>
-    <sheet name="A" sheetId="1" r:id="rId1"/>
-    <sheet name="B" sheetId="17" r:id="rId2"/>
-    <sheet name="C" sheetId="12" r:id="rId3"/>
-    <sheet name="D" sheetId="9" r:id="rId4"/>
-    <sheet name="E" sheetId="16" r:id="rId5"/>
-    <sheet name="F" sheetId="8" r:id="rId6"/>
-    <sheet name="G" sheetId="15" r:id="rId7"/>
-    <sheet name="H" sheetId="14" r:id="rId8"/>
-    <sheet name="I" sheetId="11" r:id="rId9"/>
-    <sheet name="J" sheetId="10" r:id="rId10"/>
+    <sheet name="Alessandro" sheetId="1" r:id="rId1"/>
+    <sheet name="Anielle" sheetId="17" r:id="rId2"/>
+    <sheet name="Arthur" sheetId="12" r:id="rId3"/>
+    <sheet name="Cristine" sheetId="9" r:id="rId4"/>
+    <sheet name="Elaine" sheetId="16" r:id="rId5"/>
+    <sheet name="Fabianna" sheetId="8" r:id="rId6"/>
+    <sheet name="Fabio" sheetId="18" r:id="rId7"/>
+    <sheet name="Leandro" sheetId="15" r:id="rId8"/>
+    <sheet name="Renato" sheetId="14" r:id="rId9"/>
+    <sheet name="Rinaldo" sheetId="11" r:id="rId10"/>
+    <sheet name="Rosimeire" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="155">
   <si>
     <t>Imagem</t>
   </si>
@@ -483,13 +484,40 @@
   </si>
   <si>
     <t>Bolsista produtividade em pesquisa CNPq (PQ 2)</t>
+  </si>
+  <si>
+    <t>Fabio.jpeg</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Fabio Vieira dos Anjos</t>
+  </si>
+  <si>
+    <t>Graduado em Licenciatura em Educação Física (UFRJ, 2010)</t>
+  </si>
+  <si>
+    <t>Mestre em Educação Física com uma bolsa de estudos CAPES (UFRJ, 2012)</t>
+  </si>
+  <si>
+    <t>Doutor em Engenharia Eletrônica (âmbito científico: Bioengenharia Eletrônica e Informática) no Laboratory for Engineering of the Neuromuscular System (LISiN), Politecnico de Torino, Turim, Itália (2017).</t>
+  </si>
+  <si>
+    <t>Pós-doutorado com bolsa de pós-doutorado no LISiN (Politecnico de Torino, Itália) (2018-2019)</t>
+  </si>
+  <si>
+    <t>Pós-doutorado recém-doutor nota 10 (PDR-10, FAPERJ, 2020) em Engenharia Biomédica na UFRJ (PEB/COPPE).</t>
+  </si>
+  <si>
+    <t>Professor do Mestrado e Doutorado em Ciências da Reabilitação do Centro Universitário Augusto Motta (UNISUAM).</t>
+  </si>
+  <si>
+    <t>Experiência na área de Controle Motor, atuando principalmente nos seguintes temas: controle postural, eletromiografia de superfície e técnicas de biofeedback.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -508,6 +536,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF535353"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -531,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -540,6 +574,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8470464-C0F3-0544-B5A2-36133E800C8D}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -951,6 +986,150 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC4395-1BF5-D046-A505-CE369291A3B5}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="180.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0E0E4A-4D4A-0840-AFA4-AFD6A3C28FC8}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -1567,6 +1746,96 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77081994-6011-6747-A402-3F63820384DE}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D3" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D4" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D5" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D6" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D7" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D8" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441A447B-D6EB-F54F-ADA6-014E336F58AF}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -1674,7 +1943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69826D5-3004-3448-8217-F21839F42FD6}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1764,148 +2033,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC4395-1BF5-D046-A505-CE369291A3B5}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="180.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D3" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D4" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D5" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D6" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D7" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D8" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D9" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D11" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D12" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/2023/Palestrantes.xlsx
+++ b/2023/Palestrantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/Seminario-Meio-Termo/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA86ED-86F1-8244-9ECE-CFC36B518C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EB53E9-3BF5-ED48-98CE-5CBBCA89C653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" activeTab="6" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Alessandro" sheetId="1" r:id="rId1"/>
@@ -165,9 +165,6 @@
     <t>Editora-Chefe do "Brazilian Journal of Physical Therapy" (2023-2027)</t>
   </si>
   <si>
-    <t>Rosimeire.jpg</t>
-  </si>
-  <si>
     <t>Profa. Dra. Rosimeire Simprini Padula</t>
   </si>
   <si>
@@ -345,9 +342,6 @@
     <t>Universidade de São Paulo, Faculdade de Medicina de Ribeirão Preto</t>
   </si>
   <si>
-    <t>Cristine.jpg</t>
-  </si>
-  <si>
     <t>Renato.jpeg</t>
   </si>
   <si>
@@ -511,6 +505,12 @@
   </si>
   <si>
     <t>Experiência na área de Controle Motor, atuando principalmente nos seguintes temas: controle postural, eletromiografia de superfície e técnicas de biofeedback.</t>
+  </si>
+  <si>
+    <t>Cristine.jpeg</t>
+  </si>
+  <si>
+    <t>Rosimeire.jpeg</t>
   </si>
 </sst>
 </file>
@@ -891,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8470464-C0F3-0544-B5A2-36133E800C8D}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -918,7 +918,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -1016,106 +1016,106 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
@@ -1137,7 +1137,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -1160,116 +1160,116 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1308,46 +1308,46 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1398,66 +1398,66 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1473,7 +1473,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="213.5" style="2" bestFit="1" customWidth="1"/>
@@ -1496,13 +1496,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>29</v>
@@ -1592,51 +1592,51 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1749,7 +1749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77081994-6011-6747-A402-3F63820384DE}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1776,46 +1776,46 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D4" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D5" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D6" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D7" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1866,76 +1866,76 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1974,51 +1974,51 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
